--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B86760-FF0B-4CE9-80B5-D6E55B403A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F1F59D-6D9F-4878-A53A-A2D5FEEF3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDBusiness" sheetId="1" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="D1" sqref="D1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A459A42E-2FAE-4FFC-9592-557D62ADCDC2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1358,7 @@
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1371,8 +1371,14 @@
       <c r="D1">
         <v>172234</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <v>172934</v>
+      </c>
+      <c r="F1">
+        <v>182893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1385,8 +1391,11 @@
       <c r="D2">
         <v>132245</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>144345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1399,8 +1408,14 @@
       <c r="D3">
         <v>173456</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>173346</v>
+      </c>
+      <c r="F3">
+        <v>154534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>143567</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1558,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D775EEE-2EAF-4970-BC39-A8CF10BFC1A0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
